--- a/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itga9</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H2">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I2">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J2">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N2">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O2">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P2">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q2">
-        <v>99.74758406251955</v>
+        <v>28.93277065883111</v>
       </c>
       <c r="R2">
-        <v>99.74758406251955</v>
+        <v>260.39493592948</v>
       </c>
       <c r="S2">
-        <v>0.004108864720576529</v>
+        <v>0.0005579929667126882</v>
       </c>
       <c r="T2">
-        <v>0.004108864720576529</v>
+        <v>0.000577149893402255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H3">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I3">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J3">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N3">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P3">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q3">
-        <v>236.2224084744961</v>
+        <v>56.87727260864366</v>
       </c>
       <c r="R3">
-        <v>236.2224084744961</v>
+        <v>511.895453477793</v>
       </c>
       <c r="S3">
-        <v>0.009730620841725062</v>
+        <v>0.001096926335042728</v>
       </c>
       <c r="T3">
-        <v>0.009730620841725062</v>
+        <v>0.0011345858372907</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H4">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I4">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J4">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N4">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O4">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P4">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q4">
-        <v>243.4287024148288</v>
+        <v>94.28653430296956</v>
       </c>
       <c r="R4">
-        <v>243.4287024148288</v>
+        <v>848.5788087267259</v>
       </c>
       <c r="S4">
-        <v>0.01002746699810894</v>
+        <v>0.001818395604664055</v>
       </c>
       <c r="T4">
-        <v>0.01002746699810894</v>
+        <v>0.001880824476297335</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H5">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I5">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J5">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N5">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O5">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P5">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q5">
-        <v>176.8998535089678</v>
+        <v>84.89539037939053</v>
       </c>
       <c r="R5">
-        <v>176.8998535089678</v>
+        <v>764.0585134145149</v>
       </c>
       <c r="S5">
-        <v>0.0072869691430579</v>
+        <v>0.001637279446777384</v>
       </c>
       <c r="T5">
-        <v>0.0072869691430579</v>
+        <v>0.00169349026699082</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>52.1504360126784</v>
+        <v>11.50786633333333</v>
       </c>
       <c r="H6">
-        <v>52.1504360126784</v>
+        <v>34.523599</v>
       </c>
       <c r="I6">
-        <v>0.03436965160340817</v>
+        <v>0.005443852207333851</v>
       </c>
       <c r="J6">
-        <v>0.03436965160340817</v>
+        <v>0.005515849947528557</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N6">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O6">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P6">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q6">
-        <v>78.06567271739947</v>
+        <v>17.27991863554183</v>
       </c>
       <c r="R6">
-        <v>78.06567271739947</v>
+        <v>103.679511813251</v>
       </c>
       <c r="S6">
-        <v>0.003215729899939736</v>
+        <v>0.0003332578541369946</v>
       </c>
       <c r="T6">
-        <v>0.003215729899939736</v>
+        <v>0.0002297994735474468</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H7">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I7">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J7">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N7">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O7">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P7">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q7">
-        <v>1351.240058073017</v>
+        <v>152.6387583098489</v>
       </c>
       <c r="R7">
-        <v>1351.240058073017</v>
+        <v>1373.74882478864</v>
       </c>
       <c r="S7">
-        <v>0.05566112358336511</v>
+        <v>0.002943767625609573</v>
       </c>
       <c r="T7">
-        <v>0.05566112358336511</v>
+        <v>0.003044832592301097</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H8">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I8">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J8">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N8">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O8">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P8">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q8">
-        <v>3200.009142528835</v>
+        <v>300.0637709193693</v>
       </c>
       <c r="R8">
-        <v>3200.009142528835</v>
+        <v>2700.573938274325</v>
       </c>
       <c r="S8">
-        <v>0.1318167732565629</v>
+        <v>0.005786983753219979</v>
       </c>
       <c r="T8">
-        <v>0.1318167732565629</v>
+        <v>0.005985661568403324</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H9">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I9">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J9">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N9">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O9">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P9">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q9">
-        <v>3297.629883260992</v>
+        <v>497.4214080997965</v>
       </c>
       <c r="R9">
-        <v>3297.629883260992</v>
+        <v>4476.792672898168</v>
       </c>
       <c r="S9">
-        <v>0.1358380277196234</v>
+        <v>0.00959319280150896</v>
       </c>
       <c r="T9">
-        <v>0.1358380277196234</v>
+        <v>0.009922544786534988</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H10">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I10">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J10">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N10">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O10">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P10">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q10">
-        <v>2396.39055497068</v>
+        <v>447.8771537832244</v>
       </c>
       <c r="R10">
-        <v>2396.39055497068</v>
+        <v>4030.89438404902</v>
       </c>
       <c r="S10">
-        <v>0.09871361497708364</v>
+        <v>0.00863768992984624</v>
       </c>
       <c r="T10">
-        <v>0.09871361497708364</v>
+        <v>0.008934237740705075</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>706.460801518131</v>
+        <v>60.71131066666667</v>
       </c>
       <c r="H11">
-        <v>706.460801518131</v>
+        <v>182.133932</v>
       </c>
       <c r="I11">
-        <v>0.4655917280104753</v>
+        <v>0.02871978114879024</v>
       </c>
       <c r="J11">
-        <v>0.4655917280104753</v>
+        <v>0.02909961499858025</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N11">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O11">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P11">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q11">
-        <v>1057.524000481576</v>
+        <v>91.16255595864467</v>
       </c>
       <c r="R11">
-        <v>1057.524000481576</v>
+        <v>546.9753357518681</v>
       </c>
       <c r="S11">
-        <v>0.0435621884738403</v>
+        <v>0.001758147038605485</v>
       </c>
       <c r="T11">
-        <v>0.0435621884738403</v>
+        <v>0.001212338310635762</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H12">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I12">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J12">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N12">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O12">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P12">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q12">
-        <v>1426.143259175313</v>
+        <v>2875.508460959502</v>
       </c>
       <c r="R12">
-        <v>1426.143259175313</v>
+        <v>25879.57614863552</v>
       </c>
       <c r="S12">
-        <v>0.05874658297929969</v>
+        <v>0.0554566140885123</v>
       </c>
       <c r="T12">
-        <v>0.05874658297929969</v>
+        <v>0.05736054183298557</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H13">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I13">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J13">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N13">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O13">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P13">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q13">
-        <v>3377.395038469371</v>
+        <v>5652.796980662982</v>
       </c>
       <c r="R13">
-        <v>3377.395038469371</v>
+        <v>50875.17282596684</v>
       </c>
       <c r="S13">
-        <v>0.1391237637627299</v>
+        <v>0.1090189734905981</v>
       </c>
       <c r="T13">
-        <v>0.1391237637627299</v>
+        <v>0.1127617957258586</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H14">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I14">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J14">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N14">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O14">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P14">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q14">
-        <v>3480.427183290039</v>
+        <v>9370.748841849449</v>
       </c>
       <c r="R14">
-        <v>3480.427183290039</v>
+        <v>84336.73957664502</v>
       </c>
       <c r="S14">
-        <v>0.1433679281594699</v>
+        <v>0.1807228214760372</v>
       </c>
       <c r="T14">
-        <v>0.1433679281594699</v>
+        <v>0.1869273689321537</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H15">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I15">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J15">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N15">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O15">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P15">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q15">
-        <v>2529.229514699709</v>
+        <v>8437.40187246415</v>
       </c>
       <c r="R15">
-        <v>2529.229514699709</v>
+        <v>75936.61685217735</v>
       </c>
       <c r="S15">
-        <v>0.104185600291601</v>
+        <v>0.1627224353201183</v>
       </c>
       <c r="T15">
-        <v>0.104185600291601</v>
+        <v>0.1683089963524913</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>745.621996578071</v>
+        <v>1143.719258666667</v>
       </c>
       <c r="H16">
-        <v>745.621996578071</v>
+        <v>3431.157776</v>
       </c>
       <c r="I16">
-        <v>0.4914008435901807</v>
+        <v>0.541041964732249</v>
       </c>
       <c r="J16">
-        <v>0.4914008435901807</v>
+        <v>0.5481975224747514</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.49693231133141</v>
+        <v>1.5015745</v>
       </c>
       <c r="N16">
-        <v>1.49693231133141</v>
+        <v>3.003149</v>
       </c>
       <c r="O16">
-        <v>0.09356306363084742</v>
+        <v>0.06121728537891535</v>
       </c>
       <c r="P16">
-        <v>0.09356306363084742</v>
+        <v>0.04166166152696218</v>
       </c>
       <c r="Q16">
-        <v>1116.145658717152</v>
+        <v>1717.379673972771</v>
       </c>
       <c r="R16">
-        <v>1116.145658717152</v>
+        <v>10304.27804383662</v>
       </c>
       <c r="S16">
-        <v>0.04597696839708017</v>
+        <v>0.03312112035698313</v>
       </c>
       <c r="T16">
-        <v>0.04597696839708017</v>
+        <v>0.02283881963126233</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H17">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I17">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J17">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.91268935964926</v>
+        <v>2.514173333333333</v>
       </c>
       <c r="N17">
-        <v>1.91268935964926</v>
+        <v>7.54252</v>
       </c>
       <c r="O17">
-        <v>0.1195492106812362</v>
+        <v>0.1024996538225213</v>
       </c>
       <c r="P17">
-        <v>0.1195492106812362</v>
+        <v>0.1046348067646137</v>
       </c>
       <c r="Q17">
-        <v>25.06855108710086</v>
+        <v>2049.561676537587</v>
       </c>
       <c r="R17">
-        <v>25.06855108710086</v>
+        <v>18446.05508883828</v>
       </c>
       <c r="S17">
-        <v>0.001032639397994833</v>
+        <v>0.03952753138776106</v>
       </c>
       <c r="T17">
-        <v>0.001032639397994833</v>
+        <v>0.0408845843726328</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H18">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I18">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J18">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.52963439111166</v>
+        <v>4.942469</v>
       </c>
       <c r="N18">
-        <v>4.52963439111166</v>
+        <v>14.827407</v>
       </c>
       <c r="O18">
-        <v>0.283116656345744</v>
+        <v>0.2014981842389055</v>
       </c>
       <c r="P18">
-        <v>0.283116656345744</v>
+        <v>0.2056955588139349</v>
       </c>
       <c r="Q18">
-        <v>59.36738789632529</v>
+        <v>4029.115620459097</v>
       </c>
       <c r="R18">
-        <v>59.36738789632529</v>
+        <v>36262.04058413187</v>
       </c>
       <c r="S18">
-        <v>0.002445498484726223</v>
+        <v>0.07770490440749352</v>
       </c>
       <c r="T18">
-        <v>0.002445498484726223</v>
+        <v>0.08037265695269832</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H19">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I19">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J19">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.66781720397598</v>
+        <v>8.193224666666667</v>
       </c>
       <c r="N19">
-        <v>4.66781720397598</v>
+        <v>24.579674</v>
       </c>
       <c r="O19">
-        <v>0.2917535247030144</v>
+        <v>0.3340273643385007</v>
       </c>
       <c r="P19">
-        <v>0.2917535247030144</v>
+        <v>0.3409854318354076</v>
       </c>
       <c r="Q19">
-        <v>61.17847284128663</v>
+        <v>6679.141434452587</v>
       </c>
       <c r="R19">
-        <v>61.17847284128663</v>
+        <v>60112.27291007328</v>
       </c>
       <c r="S19">
-        <v>0.002520101825812206</v>
+        <v>0.1288128948330179</v>
       </c>
       <c r="T19">
-        <v>0.002520101825812206</v>
+        <v>0.1332352788596926</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.1064414410178</v>
+        <v>815.2030129999999</v>
       </c>
       <c r="H20">
-        <v>13.1064414410178</v>
+        <v>2445.609039</v>
       </c>
       <c r="I20">
-        <v>0.008637776795935888</v>
+        <v>0.3856357549870674</v>
       </c>
       <c r="J20">
-        <v>0.008637776795935888</v>
+        <v>0.3907359858235961</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.39210689371727</v>
+        <v>7.377161666666666</v>
       </c>
       <c r="N20">
-        <v>3.39210689371727</v>
+        <v>22.131485</v>
       </c>
       <c r="O20">
-        <v>0.212017544639158</v>
+        <v>0.3007575122211572</v>
       </c>
       <c r="P20">
-        <v>0.212017544639158</v>
+        <v>0.3070225410590818</v>
       </c>
       <c r="Q20">
-        <v>44.45845036417819</v>
+        <v>6013.884418054768</v>
       </c>
       <c r="R20">
-        <v>44.45845036417819</v>
+        <v>54124.95976249291</v>
       </c>
       <c r="S20">
-        <v>0.00183136022741542</v>
+        <v>0.1159828502934381</v>
       </c>
       <c r="T20">
-        <v>0.00183136022741542</v>
+        <v>0.1199647552507858</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>815.2030129999999</v>
+      </c>
+      <c r="H21">
+        <v>2445.609039</v>
+      </c>
+      <c r="I21">
+        <v>0.3856357549870674</v>
+      </c>
+      <c r="J21">
+        <v>0.3907359858235961</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.5015745</v>
+      </c>
+      <c r="N21">
+        <v>3.003149</v>
+      </c>
+      <c r="O21">
+        <v>0.06121728537891535</v>
+      </c>
+      <c r="P21">
+        <v>0.04166166152696218</v>
+      </c>
+      <c r="Q21">
+        <v>1224.088056643968</v>
+      </c>
+      <c r="R21">
+        <v>7344.528339863811</v>
+      </c>
+      <c r="S21">
+        <v>0.02360757406535679</v>
+      </c>
+      <c r="T21">
+        <v>0.01627871038778655</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H22">
+        <v>165.556469</v>
+      </c>
+      <c r="I22">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J22">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>2.514173333333333</v>
+      </c>
+      <c r="N22">
+        <v>7.54252</v>
+      </c>
+      <c r="O22">
+        <v>0.1024996538225213</v>
+      </c>
+      <c r="P22">
+        <v>0.1046348067646137</v>
+      </c>
+      <c r="Q22">
+        <v>208.1188297603134</v>
+      </c>
+      <c r="R22">
+        <v>1248.71297856188</v>
+      </c>
+      <c r="S22">
+        <v>0.004013747753925679</v>
+      </c>
+      <c r="T22">
+        <v>0.002767698073291946</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H23">
+        <v>165.556469</v>
+      </c>
+      <c r="I23">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J23">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>4.942469</v>
+      </c>
+      <c r="N23">
+        <v>14.827407</v>
+      </c>
+      <c r="O23">
+        <v>0.2014981842389055</v>
+      </c>
+      <c r="P23">
+        <v>0.2056955588139349</v>
+      </c>
+      <c r="Q23">
+        <v>409.1288578909806</v>
+      </c>
+      <c r="R23">
+        <v>2454.773147345883</v>
+      </c>
+      <c r="S23">
+        <v>0.007890396252551122</v>
+      </c>
+      <c r="T23">
+        <v>0.005440858729683914</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H24">
+        <v>165.556469</v>
+      </c>
+      <c r="I24">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J24">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>8.193224666666667</v>
+      </c>
+      <c r="N24">
+        <v>24.579674</v>
+      </c>
+      <c r="O24">
+        <v>0.3340273643385007</v>
+      </c>
+      <c r="P24">
+        <v>0.3409854318354076</v>
+      </c>
+      <c r="Q24">
+        <v>678.2206727685178</v>
+      </c>
+      <c r="R24">
+        <v>4069.324036611107</v>
+      </c>
+      <c r="S24">
+        <v>0.01308005962327251</v>
+      </c>
+      <c r="T24">
+        <v>0.009019414780729006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="H21">
-        <v>13.1064414410178</v>
-      </c>
-      <c r="I21">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="J21">
-        <v>0.008637776795935888</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>1.49693231133141</v>
-      </c>
-      <c r="N21">
-        <v>1.49693231133141</v>
-      </c>
-      <c r="O21">
-        <v>0.09356306363084742</v>
-      </c>
-      <c r="P21">
-        <v>0.09356306363084742</v>
-      </c>
-      <c r="Q21">
-        <v>19.61945567963255</v>
-      </c>
-      <c r="R21">
-        <v>19.61945567963255</v>
-      </c>
-      <c r="S21">
-        <v>0.0008081768599872068</v>
-      </c>
-      <c r="T21">
-        <v>0.0008081768599872068</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H25">
+        <v>165.556469</v>
+      </c>
+      <c r="I25">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J25">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>7.377161666666666</v>
+      </c>
+      <c r="N25">
+        <v>22.131485</v>
+      </c>
+      <c r="O25">
+        <v>0.3007575122211572</v>
+      </c>
+      <c r="P25">
+        <v>0.3070225410590818</v>
+      </c>
+      <c r="Q25">
+        <v>610.6684183877442</v>
+      </c>
+      <c r="R25">
+        <v>3664.010510326465</v>
+      </c>
+      <c r="S25">
+        <v>0.01177725723097716</v>
+      </c>
+      <c r="T25">
+        <v>0.008121061448108801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>82.77823450000001</v>
+      </c>
+      <c r="H26">
+        <v>165.556469</v>
+      </c>
+      <c r="I26">
+        <v>0.03915864692455941</v>
+      </c>
+      <c r="J26">
+        <v>0.02645102675554375</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.5015745</v>
+      </c>
+      <c r="N26">
+        <v>3.003149</v>
+      </c>
+      <c r="O26">
+        <v>0.06121728537891535</v>
+      </c>
+      <c r="P26">
+        <v>0.04166166152696218</v>
+      </c>
+      <c r="Q26">
+        <v>124.2976860802203</v>
+      </c>
+      <c r="R26">
+        <v>497.1907443208811</v>
+      </c>
+      <c r="S26">
+        <v>0.002397186063832939</v>
+      </c>
+      <c r="T26">
+        <v>0.001101993723730084</v>
       </c>
     </row>
   </sheetData>
